--- a/BackTest/2020-01-25 BackTest BCD.xlsx
+++ b/BackTest/2020-01-25 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-17032.97138822</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-18072.97138822</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-25188.46458822</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-23872.89168822</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-22482.02628822</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-22482.02628822</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-22482.02628822</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-22482.02628822</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-24602.02628822</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-24236.02628822</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-24259.02628822</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-24259.02628822</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-24657.72628822</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-39198.62568822</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-38833.02568822</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-38753.02568822</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-38761.34718822</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-36461.34718822</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-36558.37628822</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-41017.69458822</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-43900.73178822</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-43899.88178822</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-43899.88178822</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-43959.02178822</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-20815.78622907002</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-21375.78622907002</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-21495.78622907002</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-19266.66962907002</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-17531.74066185002</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-17749.81026185002</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-17749.81026185002</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-17635.81026185002</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-20125.81026185002</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-19025.61026185002</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-19125.61026185002</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-21354.72686185002</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-21354.72686185002</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-26020.98542124002</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-28140.98542124002</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-28742.53172124002</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-27700.27082124002</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-27701.29543034002</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-29392.86003034002</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-24501.22623034002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-24601.22623034002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-24601.22623034002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-24601.22623034002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-24601.22623034002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-27191.14053034002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-27079.92033034002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-27079.92033034002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-27079.92033034002</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-27079.92033034002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-27079.92033034002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -6985,11 +6985,17 @@
         <v>-79593.53341736003</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>586.2</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7028,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7061,17 @@
         <v>-79308.93341736002</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>586.2</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,7 +7100,7 @@
         <v>-79593.53341736003</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>588.5</v>
@@ -7092,7 +7108,7 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7123,7 +7139,7 @@
         <v>-77950.52441736002</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>585.4</v>
@@ -7162,7 +7178,7 @@
         <v>-77950.52441736002</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>588.5</v>
@@ -7201,7 +7217,7 @@
         <v>-77950.52441736002</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>588.5</v>
@@ -7240,7 +7256,7 @@
         <v>-77950.52441736002</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>588.5</v>
@@ -7279,7 +7295,7 @@
         <v>-77755.00201736002</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>588.5</v>
@@ -7318,7 +7334,7 @@
         <v>-76107.11161736002</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>589.6</v>
@@ -7357,7 +7373,7 @@
         <v>-75797.61081736002</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>589.9</v>
@@ -7396,7 +7412,7 @@
         <v>-75454.67361736002</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>590</v>
@@ -7435,7 +7451,7 @@
         <v>-75454.67361736002</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>590.1</v>
@@ -7474,7 +7490,7 @@
         <v>-74679.83101736002</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>590.1</v>
@@ -7513,11 +7529,9 @@
         <v>-73248.70031736002</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>590.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -7552,7 +7566,7 @@
         <v>-73248.70031736002</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>590.7</v>
@@ -7591,9 +7605,11 @@
         <v>-73242.93371736002</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>590.7</v>
+      </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -7628,9 +7644,11 @@
         <v>-73242.93371736002</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>590.8</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -7665,9 +7683,11 @@
         <v>-72339.49181736002</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>590.8</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -7702,11 +7722,9 @@
         <v>-72557.49181736002</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>590.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -7926,11 +7944,9 @@
         <v>-72691.55051736002</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -7965,11 +7981,9 @@
         <v>-72760.88351736002</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8004,11 +8018,9 @@
         <v>-72760.88351736002</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8080,11 +8092,9 @@
         <v>-72758.08351736002</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8119,11 +8129,9 @@
         <v>-72707.14301736002</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>592.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8158,11 +8166,9 @@
         <v>-72707.69851736003</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>592.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8197,11 +8203,9 @@
         <v>-72788.84411736003</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>590.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8236,11 +8240,9 @@
         <v>-72788.84411736003</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>590.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8275,11 +8277,9 @@
         <v>-73408.84411736003</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>590.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8314,11 +8314,9 @@
         <v>-73408.84411736003</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8353,11 +8351,9 @@
         <v>-71670.27541736003</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8392,11 +8388,9 @@
         <v>-75457.79341736002</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>592.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -8431,11 +8425,9 @@
         <v>-74605.45011736003</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>586.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -8470,11 +8462,9 @@
         <v>-74541.50961736003</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -8509,11 +8499,9 @@
         <v>-74701.53751736003</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>591.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -8548,11 +8536,9 @@
         <v>-75462.53301736004</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>589.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8587,11 +8573,9 @@
         <v>-75462.53301736004</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -8626,11 +8610,9 @@
         <v>-75462.53301736004</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8665,11 +8647,9 @@
         <v>-75483.53301736004</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8704,11 +8684,9 @@
         <v>-75482.68301736003</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>587.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8743,11 +8721,9 @@
         <v>-75482.68301736003</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8782,11 +8758,9 @@
         <v>-75130.38301736003</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -8821,11 +8795,9 @@
         <v>-73545.34291736003</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>591.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -8897,11 +8869,9 @@
         <v>-69103.83701736003</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>593.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -8936,11 +8906,9 @@
         <v>-69531.83701736003</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>594.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -8975,11 +8943,9 @@
         <v>-69531.83701736003</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9014,11 +8980,9 @@
         <v>-72034.83231736002</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9053,11 +9017,9 @@
         <v>-81264.75661736002</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>590.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9092,11 +9054,9 @@
         <v>-81724.39671736002</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>589.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9131,11 +9091,9 @@
         <v>-81724.39671736002</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>588.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9170,11 +9128,9 @@
         <v>-86091.14751736002</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>588.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9209,11 +9165,9 @@
         <v>-88067.78141736002</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>587.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9248,7 +9202,7 @@
         <v>-88107.42841736002</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>586.3</v>
@@ -9287,7 +9241,7 @@
         <v>-88107.42841736002</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>585.1</v>
@@ -9326,7 +9280,7 @@
         <v>-88106.42841736002</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>585.1</v>
@@ -9365,7 +9319,7 @@
         <v>-88106.42841736002</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>589.8</v>
@@ -9404,7 +9358,7 @@
         <v>-88656.86361736002</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>589.8</v>
@@ -9443,7 +9397,7 @@
         <v>-88656.86361736002</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>588.6</v>
@@ -9482,7 +9436,7 @@
         <v>-88656.86361736002</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>588.6</v>
@@ -9521,7 +9475,7 @@
         <v>-87918.06831736003</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>588.6</v>
@@ -9560,7 +9514,7 @@
         <v>-87446.81001736003</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>592</v>
@@ -9599,7 +9553,7 @@
         <v>-88330.67801736003</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>593.9</v>
@@ -9638,7 +9592,7 @@
         <v>-88330.67801736003</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>592</v>
@@ -9677,7 +9631,7 @@
         <v>-88329.67801736003</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>592</v>
@@ -9716,7 +9670,7 @@
         <v>-90929.67801736003</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>593.8</v>
@@ -9755,7 +9709,7 @@
         <v>-90574.52701736003</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>592</v>
@@ -9794,7 +9748,7 @@
         <v>-90221.10881736003</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>593.7</v>
@@ -10240,9 +10194,11 @@
         <v>-88467.01001736002</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>591.7</v>
+      </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10277,9 +10233,11 @@
         <v>-81004.34347773003</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>591.4</v>
+      </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10647,11 +10605,9 @@
         <v>-74630.80263394002</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10723,11 +10679,9 @@
         <v>-73170.77593394002</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>599.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10762,11 +10716,9 @@
         <v>-73170.77593394002</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>599.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -11874,7 +11826,7 @@
         <v>-45640.02527148</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12022,7 +11974,7 @@
         <v>-55024.90107148</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12651,7 +12603,7 @@
         <v>-63185.17767148001</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12725,7 +12677,7 @@
         <v>-62057.71427148001</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12762,7 +12714,7 @@
         <v>-62057.71427148001</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12799,7 +12751,7 @@
         <v>-62057.71427148001</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12910,7 +12862,7 @@
         <v>-84262.07977148</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12947,7 +12899,7 @@
         <v>-87639.86367147999</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -17017,16 +16969,18 @@
         <v>-53104.11627623995</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L468" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L468" t="n">
+        <v>1</v>
+      </c>
       <c r="M468" t="inlineStr"/>
     </row>
     <row r="469">
@@ -17052,11 +17006,15 @@
         <v>-49741.92737623995</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17089,7 +17047,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17122,7 +17084,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17151,11 +17117,15 @@
         <v>-46491.92737623995</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17184,11 +17154,15 @@
         <v>-46481.92737623995</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17221,7 +17195,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17254,7 +17232,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17287,7 +17269,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17320,7 +17306,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17349,17 +17339,19 @@
         <v>-45532.18087623995</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest BCD.xlsx
+++ b/BackTest/2020-01-25 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-17032.97138822</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-18072.97138822</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-25188.46458822</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-23872.89168822</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-22482.02628822</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-22482.02628822</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-22482.02628822</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-22482.02628822</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-24602.02628822</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-24236.02628822</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-24259.02628822</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-24259.02628822</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-24657.72628822</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-39198.62568822</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-38833.02568822</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-38753.02568822</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-38761.34718822</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-36461.34718822</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-36558.37628822</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-41017.69458822</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-43900.73178822</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-43899.88178822</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-43899.88178822</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-43959.02178822</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-28140.98542124002</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-28742.53172124002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-27700.27082124002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-27701.29543034002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-28086.33203034002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-28591.33203034002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-29491.81003034002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-24501.22623034002</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-24601.22623034002</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-24601.22623034002</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-24601.22623034002</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-24601.22623034002</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-27191.14053034002</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-27079.92033034002</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-27079.92033034002</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-27079.92033034002</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-27079.92033034002</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-27079.92033034002</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -6985,17 +6985,11 @@
         <v>-79593.53341736003</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>586.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7028,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7061,17 +7051,11 @@
         <v>-79308.93341736002</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>586.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7100,17 +7084,11 @@
         <v>-79593.53341736003</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>588.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7139,17 +7117,11 @@
         <v>-77950.52441736002</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>585.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7178,17 +7150,11 @@
         <v>-77950.52441736002</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>588.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7217,17 +7183,11 @@
         <v>-77950.52441736002</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>588.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7256,17 +7216,11 @@
         <v>-77950.52441736002</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>588.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7295,17 +7249,11 @@
         <v>-77755.00201736002</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>588.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7334,17 +7282,11 @@
         <v>-76107.11161736002</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>589.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7373,17 +7315,11 @@
         <v>-75797.61081736002</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>589.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7412,17 +7348,11 @@
         <v>-75454.67361736002</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7451,17 +7381,11 @@
         <v>-75454.67361736002</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>590.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7490,17 +7414,11 @@
         <v>-74679.83101736002</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>590.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7533,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7566,17 +7480,11 @@
         <v>-73248.70031736002</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>590.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7605,17 +7513,11 @@
         <v>-73242.93371736002</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>590.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7644,17 +7546,11 @@
         <v>-73242.93371736002</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>590.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7683,17 +7579,11 @@
         <v>-72339.49181736002</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>590.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7726,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7763,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7800,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7837,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7874,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7911,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7948,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7985,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8022,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8055,15 +7909,15 @@
         <v>-72760.88351736002</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>591</v>
+      </c>
+      <c r="J228" t="n">
+        <v>591</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8092,13 +7946,17 @@
         <v>-72758.08351736002</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>591</v>
+      </c>
+      <c r="J229" t="n">
+        <v>591</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -8132,10 +7990,12 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>591</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -8170,11 +8030,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8207,11 +8063,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8244,11 +8096,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8281,11 +8129,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8314,13 +8158,15 @@
         <v>-73408.84411736003</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>590</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L235" t="n">
@@ -8351,9 +8197,11 @@
         <v>-71670.27541736003</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>590</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8425,9 +8273,11 @@
         <v>-74605.45011736003</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>586.4</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -8462,9 +8312,11 @@
         <v>-74541.50961736003</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>589</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -8499,9 +8351,11 @@
         <v>-74701.53751736003</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>591.5</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -8536,9 +8390,11 @@
         <v>-75462.53301736004</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>589.6</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8573,9 +8429,11 @@
         <v>-75462.53301736004</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>588</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -8610,9 +8468,11 @@
         <v>-75462.53301736004</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>588</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8647,9 +8507,11 @@
         <v>-75483.53301736004</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>588</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8684,9 +8546,11 @@
         <v>-75482.68301736003</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>587.4</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8721,9 +8585,11 @@
         <v>-75482.68301736003</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>591</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8758,9 +8624,11 @@
         <v>-75130.38301736003</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>591</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -8795,9 +8663,11 @@
         <v>-73545.34291736003</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>591.7</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -8832,9 +8702,11 @@
         <v>-72122.83701736003</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>592.9</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9091,9 +8963,11 @@
         <v>-81724.39671736002</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>588.2</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9128,9 +9002,11 @@
         <v>-86091.14751736002</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>588.2</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9165,9 +9041,11 @@
         <v>-88067.78141736002</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>587.9</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9553,11 +9431,9 @@
         <v>-88330.67801736003</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>593.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9592,11 +9468,9 @@
         <v>-88330.67801736003</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -9631,11 +9505,9 @@
         <v>-88329.67801736003</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -9670,11 +9542,9 @@
         <v>-90929.67801736003</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>593.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -9709,11 +9579,9 @@
         <v>-90574.52701736003</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -9748,11 +9616,9 @@
         <v>-90221.10881736003</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>593.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10194,11 +10060,9 @@
         <v>-88467.01001736002</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>591.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10233,11 +10097,9 @@
         <v>-81004.34347773003</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>591.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -11123,18 +10985,16 @@
         <v>-71371.98353394</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
@@ -11164,11 +11024,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11197,15 +11053,11 @@
         <v>-71379.98353394</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11234,15 +11086,11 @@
         <v>-71379.98353394</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11271,15 +11119,11 @@
         <v>-69718.17323394</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11308,15 +11152,11 @@
         <v>-69718.17323394</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11345,15 +11185,11 @@
         <v>-69329.20443394</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11386,11 +11222,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11423,11 +11255,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11460,11 +11288,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11493,15 +11317,11 @@
         <v>-67361.47253394</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11530,15 +11350,11 @@
         <v>-67058.89291126</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11567,15 +11383,11 @@
         <v>-67237.49281126</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11604,15 +11416,11 @@
         <v>-66912.29201126</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11641,15 +11449,11 @@
         <v>-64162.29201126</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11678,15 +11482,11 @@
         <v>-61400.67702769</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11719,11 +11519,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11756,11 +11552,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11793,11 +11585,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11830,11 +11618,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11867,11 +11651,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11904,11 +11684,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11941,11 +11717,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11978,11 +11750,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12015,11 +11783,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12052,11 +11816,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12089,11 +11849,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12126,11 +11882,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12163,11 +11915,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12200,11 +11948,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12237,11 +11981,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12274,11 +12014,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12311,11 +12047,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12348,11 +12080,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12385,11 +12113,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12422,11 +12146,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12459,11 +12179,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12212,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12533,11 +12245,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12570,11 +12278,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12607,11 +12311,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12644,11 +12344,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12681,11 +12377,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12718,11 +12410,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12755,11 +12443,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12792,11 +12476,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12829,11 +12509,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12866,11 +12542,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12903,11 +12575,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12940,11 +12608,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12977,11 +12641,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13014,11 +12674,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13051,11 +12707,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13088,11 +12740,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13125,11 +12773,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13162,11 +12806,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13199,11 +12839,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13236,11 +12872,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13273,11 +12905,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13310,11 +12938,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13347,11 +12971,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13384,11 +13004,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13421,11 +13037,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13458,11 +13070,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13495,11 +13103,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13532,11 +13136,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13569,11 +13169,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13606,11 +13202,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13643,11 +13235,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13680,11 +13268,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13301,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13754,11 +13334,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13791,11 +13367,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13828,11 +13400,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13865,11 +13433,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13902,11 +13466,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13939,11 +13499,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13976,11 +13532,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14013,11 +13565,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14050,11 +13598,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14087,11 +13631,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14120,15 +13660,15 @@
         <v>-92546.75607148001</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>599.9</v>
+      </c>
+      <c r="J391" t="n">
+        <v>599.9</v>
+      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14160,10 +13700,12 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L392" t="n">
@@ -14197,7 +13739,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14234,7 +13778,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14271,7 +13817,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14308,7 +13856,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14345,7 +13895,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14382,7 +13934,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14419,7 +13973,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14456,7 +14012,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14493,7 +14051,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14530,7 +14090,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14567,7 +14129,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14604,7 +14168,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14641,7 +14207,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14678,7 +14246,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14715,7 +14285,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14752,7 +14324,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14789,7 +14363,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14826,7 +14402,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14863,7 +14441,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14900,7 +14480,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14937,7 +14519,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14974,7 +14558,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15011,7 +14597,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15048,7 +14636,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15085,7 +14675,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15122,7 +14714,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15159,7 +14753,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15196,7 +14792,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15233,7 +14831,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15270,7 +14870,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15307,7 +14909,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15344,7 +14948,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15381,7 +14987,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15418,7 +15026,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15455,7 +15065,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15492,7 +15104,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15529,7 +15143,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15566,7 +15182,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15603,7 +15221,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15640,7 +15260,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15677,7 +15299,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15714,7 +15338,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15751,7 +15377,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15788,7 +15416,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15825,7 +15455,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15862,7 +15494,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15899,7 +15533,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15936,7 +15572,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15973,7 +15611,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16010,7 +15650,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16047,7 +15689,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16084,7 +15728,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16121,7 +15767,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16158,7 +15806,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16195,7 +15845,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16232,7 +15884,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16269,7 +15923,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16306,7 +15962,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16343,7 +16001,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16380,7 +16040,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16417,7 +16079,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16454,7 +16118,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16491,7 +16157,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16528,7 +16196,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16565,7 +16235,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16602,7 +16274,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16639,7 +16313,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16676,7 +16352,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16713,7 +16391,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16750,7 +16430,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16787,7 +16469,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16824,7 +16508,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16861,7 +16547,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16898,7 +16586,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16935,7 +16625,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16972,7 +16664,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17009,7 +16703,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17046,7 +16742,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17083,7 +16781,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17120,7 +16820,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17157,7 +16859,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17194,7 +16898,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17231,7 +16937,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17268,7 +16976,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17305,7 +17015,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17339,19 +17051,23 @@
         <v>-45532.18087623995</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>599.9</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L478" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
       <c r="M478" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest BCD.xlsx
+++ b/BackTest/2020-01-25 BackTest BCD.xlsx
@@ -2860,7 +2860,7 @@
         <v>-17749.81026185002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-17749.81026185002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-28140.98542124002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-28742.53172124002</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-27700.27082124002</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-27701.29543034002</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-28086.33203034002</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-28591.33203034002</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-29491.81003034002</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -7612,10 +7612,14 @@
         <v>-72557.49181736002</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="J219" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
@@ -7648,8 +7652,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +7691,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +7730,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +7769,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +7808,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +7847,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +7886,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +7922,19 @@
         <v>-72760.88351736002</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>591</v>
+      </c>
+      <c r="J227" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7915,9 +7969,13 @@
         <v>591</v>
       </c>
       <c r="J228" t="n">
-        <v>591</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
+        <v>590.9</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7952,11 +8010,11 @@
         <v>591</v>
       </c>
       <c r="J229" t="n">
-        <v>591</v>
+        <v>590.9</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -7991,11 +8049,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>591</v>
+        <v>590.9</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -8026,11 +8084,19 @@
         <v>-72707.69851736003</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>592.8</v>
+      </c>
+      <c r="J231" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8062,8 +8128,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8092,11 +8164,19 @@
         <v>-72788.84411736003</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>590.8</v>
+      </c>
+      <c r="J233" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8128,8 +8208,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8163,10 +8249,12 @@
       <c r="I235" t="n">
         <v>590</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L235" t="n">
@@ -8197,12 +8285,12 @@
         <v>-71670.27541736003</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>590</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8239,7 +8327,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8273,12 +8363,12 @@
         <v>-74605.45011736003</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>586.4</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8317,7 +8407,9 @@
       <c r="I239" t="n">
         <v>589</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8351,12 +8443,12 @@
         <v>-74701.53751736003</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>591.5</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8390,12 +8482,12 @@
         <v>-75462.53301736004</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>589.6</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8434,7 +8526,9 @@
       <c r="I242" t="n">
         <v>588</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8473,7 +8567,9 @@
       <c r="I243" t="n">
         <v>588</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8507,12 +8603,12 @@
         <v>-75483.53301736004</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>588</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8551,7 +8647,9 @@
       <c r="I245" t="n">
         <v>587.4</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8590,7 +8688,9 @@
       <c r="I246" t="n">
         <v>591</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8629,7 +8729,9 @@
       <c r="I247" t="n">
         <v>591</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8663,12 +8765,12 @@
         <v>-73545.34291736003</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>591.7</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8707,7 +8809,9 @@
       <c r="I249" t="n">
         <v>592.9</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8744,7 +8848,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8781,7 +8887,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8818,7 +8926,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8855,7 +8965,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8892,7 +9004,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8929,7 +9043,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8963,12 +9079,12 @@
         <v>-81724.39671736002</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>588.2</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9002,12 +9118,12 @@
         <v>-86091.14751736002</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>588.2</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9041,12 +9157,12 @@
         <v>-88067.78141736002</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>587.9</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9080,12 +9196,12 @@
         <v>-88107.42841736002</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>586.3</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9124,7 +9240,9 @@
       <c r="I260" t="n">
         <v>585.1</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9163,7 +9281,9 @@
       <c r="I261" t="n">
         <v>585.1</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9202,7 +9322,9 @@
       <c r="I262" t="n">
         <v>589.8</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9241,7 +9363,9 @@
       <c r="I263" t="n">
         <v>589.8</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9280,7 +9404,9 @@
       <c r="I264" t="n">
         <v>588.6</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9319,7 +9445,9 @@
       <c r="I265" t="n">
         <v>588.6</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9358,7 +9486,9 @@
       <c r="I266" t="n">
         <v>588.6</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9397,7 +9527,9 @@
       <c r="I267" t="n">
         <v>592</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9431,10 +9563,14 @@
         <v>-88330.67801736003</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>593.9</v>
+      </c>
+      <c r="J268" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9468,10 +9604,14 @@
         <v>-88330.67801736003</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>592</v>
+      </c>
+      <c r="J269" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9505,10 +9645,14 @@
         <v>-88329.67801736003</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>592</v>
+      </c>
+      <c r="J270" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9542,10 +9686,14 @@
         <v>-90929.67801736003</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>593.8</v>
+      </c>
+      <c r="J271" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9579,10 +9727,14 @@
         <v>-90574.52701736003</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>592</v>
+      </c>
+      <c r="J272" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9619,7 +9771,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9656,7 +9810,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9693,7 +9849,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9730,7 +9888,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9767,7 +9927,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9804,7 +9966,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9841,7 +10005,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9878,7 +10044,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9915,7 +10083,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9952,7 +10122,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9986,10 +10158,14 @@
         <v>-87873.47431736003</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>593.9</v>
+      </c>
+      <c r="J283" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10023,10 +10199,14 @@
         <v>-88261.19971736002</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>592.1</v>
+      </c>
+      <c r="J284" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10060,10 +10240,14 @@
         <v>-88467.01001736002</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>591.7</v>
+      </c>
+      <c r="J285" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10097,10 +10281,14 @@
         <v>-81004.34347773003</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>591.4</v>
+      </c>
+      <c r="J286" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10137,7 +10325,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10174,7 +10364,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10211,7 +10403,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10248,7 +10442,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10285,7 +10481,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10322,7 +10520,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10359,7 +10559,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10396,7 +10598,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10433,7 +10637,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10470,7 +10676,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10507,7 +10715,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10544,7 +10754,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10581,7 +10793,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10618,7 +10832,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10655,7 +10871,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10692,7 +10910,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10729,7 +10949,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10766,7 +10988,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10803,7 +11027,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10840,7 +11066,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10877,7 +11105,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10914,7 +11144,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10951,7 +11183,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10985,16 +11219,20 @@
         <v>-71371.98353394</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>590.9</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L310" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
       <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
@@ -11023,8 +11261,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11053,11 +11297,17 @@
         <v>-71379.98353394</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11086,11 +11336,17 @@
         <v>-71379.98353394</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11119,11 +11375,17 @@
         <v>-69718.17323394</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11152,11 +11414,17 @@
         <v>-69718.17323394</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11185,11 +11453,17 @@
         <v>-69329.20443394</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11221,8 +11495,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11254,8 +11534,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11287,8 +11573,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11317,11 +11609,17 @@
         <v>-67361.47253394</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11350,11 +11648,17 @@
         <v>-67058.89291126</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11383,11 +11687,17 @@
         <v>-67237.49281126</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11416,11 +11726,17 @@
         <v>-66912.29201126</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11449,11 +11765,17 @@
         <v>-64162.29201126</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11482,11 +11804,17 @@
         <v>-61400.67702769</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11518,8 +11846,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11551,8 +11885,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11584,8 +11924,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11617,8 +11963,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11650,8 +12002,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11683,8 +12041,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11716,8 +12080,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11749,8 +12119,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11782,8 +12158,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11815,8 +12197,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11848,8 +12236,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11881,8 +12275,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11914,8 +12314,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11947,8 +12353,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11980,8 +12392,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12013,8 +12431,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12046,8 +12470,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12079,8 +12509,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12112,8 +12548,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12145,8 +12587,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12178,8 +12626,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12211,8 +12665,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12244,8 +12704,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12277,8 +12743,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12310,8 +12782,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12343,8 +12821,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12376,8 +12860,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12409,8 +12899,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12442,8 +12938,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12475,8 +12977,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12508,8 +13016,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12541,8 +13055,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12574,8 +13094,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12607,8 +13133,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12640,8 +13172,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12673,8 +13211,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12706,8 +13250,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12739,8 +13289,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12772,8 +13328,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12805,8 +13367,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12838,8 +13406,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12871,8 +13445,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12904,8 +13484,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12937,8 +13523,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12970,8 +13562,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13003,8 +13601,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13036,8 +13640,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13069,8 +13679,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13102,8 +13718,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13135,8 +13757,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13168,8 +13796,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13201,8 +13835,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13234,8 +13874,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13267,8 +13913,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13300,8 +13952,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13333,8 +13991,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13366,8 +14030,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13399,8 +14069,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13432,8 +14108,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13465,8 +14147,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13498,8 +14186,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13531,8 +14225,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13564,8 +14264,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13597,8 +14303,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13630,8 +14342,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13660,15 +14378,17 @@
         <v>-92546.75607148001</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>599.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>599.9</v>
-      </c>
-      <c r="K391" t="inlineStr"/>
+        <v>590.9</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13701,11 +14421,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L392" t="n">
@@ -13740,7 +14460,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13779,7 +14499,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13818,7 +14538,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13857,7 +14577,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13896,7 +14616,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13935,7 +14655,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13974,7 +14694,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14013,7 +14733,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14052,7 +14772,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14091,7 +14811,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14130,7 +14850,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14169,7 +14889,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14208,7 +14928,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14247,7 +14967,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14286,7 +15006,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14325,7 +15045,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14364,7 +15084,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14403,7 +15123,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14442,7 +15162,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14481,7 +15201,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14520,7 +15240,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14559,7 +15279,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14598,7 +15318,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14637,7 +15357,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14676,7 +15396,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14715,7 +15435,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14754,7 +15474,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14793,7 +15513,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14832,7 +15552,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14871,7 +15591,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14910,7 +15630,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14949,7 +15669,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14988,7 +15708,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15027,7 +15747,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15066,7 +15786,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15105,7 +15825,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15144,7 +15864,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15183,7 +15903,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15222,7 +15942,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15261,7 +15981,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15300,7 +16020,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15339,7 +16059,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15378,7 +16098,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15417,7 +16137,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15456,7 +16176,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15495,7 +16215,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15534,7 +16254,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15573,7 +16293,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15612,7 +16332,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15651,7 +16371,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15690,7 +16410,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15729,7 +16449,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15768,7 +16488,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15807,7 +16527,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15846,7 +16566,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15885,7 +16605,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15924,7 +16644,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15963,7 +16683,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16002,7 +16722,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16041,7 +16761,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16080,7 +16800,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16119,7 +16839,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16158,7 +16878,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16197,7 +16917,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16236,7 +16956,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16275,7 +16995,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16314,7 +17034,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16353,7 +17073,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16392,7 +17112,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16431,7 +17151,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16470,7 +17190,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16509,7 +17229,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16548,7 +17268,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16587,7 +17307,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16626,7 +17346,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16661,21 +17381,23 @@
         <v>-53104.11627623995</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>599.9</v>
+        <v>590.9</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L468" t="n">
-        <v>1</v>
-      </c>
-      <c r="M468" t="inlineStr"/>
+        <v>1.06895498392283</v>
+      </c>
+      <c r="M468" t="n">
+        <v>1.0951565976382</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -16700,17 +17422,11 @@
         <v>-49741.92737623995</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>599.9</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16739,17 +17455,11 @@
         <v>-47241.92737623995</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>599.9</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16778,17 +17488,11 @@
         <v>-46301.92737623995</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>599.9</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16817,17 +17521,11 @@
         <v>-46491.92737623995</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>599.9</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16856,17 +17554,11 @@
         <v>-46481.92737623995</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>599.9</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16895,17 +17587,11 @@
         <v>-46661.18087623995</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>599.9</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16934,17 +17620,11 @@
         <v>-46982.18087623995</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>599.9</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16973,17 +17653,11 @@
         <v>-46982.18087623995</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>599.9</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17012,17 +17686,11 @@
         <v>-46982.18087623995</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>599.9</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17051,17 +17719,11 @@
         <v>-45532.18087623995</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>599.9</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
